--- a/KYElecPrices.xlsx
+++ b/KYElecPrices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeLouisville\repos\CLP-LGEBills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6FA99E-9063-4A84-A0CE-0D5040692A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF0645B-CC95-4213-A405-97C79DE0EB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-4395" windowWidth="19440" windowHeight="14040" xr2:uid="{DFB6B7E4-1CCE-4C30-95C5-057BF0E88DD7}"/>
+    <workbookView xWindow="14970" yWindow="3480" windowWidth="18000" windowHeight="9360" xr2:uid="{DFB6B7E4-1CCE-4C30-95C5-057BF0E88DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,11 +409,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E9AF0E-4F71-4E82-9DF8-FECAA0674234}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1126,6 +1126,50 @@
         <v>121.63</v>
       </c>
     </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.126</v>
+      </c>
+      <c r="C65" s="2">
+        <v>108.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.128</v>
+      </c>
+      <c r="C66" s="2">
+        <v>118.84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="C67" s="2">
+        <v>153.66999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B68" s="3">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="C68" s="2">
+        <v>190.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
